--- a/notebooks/anomaly/isolation_forest/DataAnomaly.xlsx
+++ b/notebooks/anomaly/isolation_forest/DataAnomaly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsharma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsharma\OneDrive - Microsoft\Desktop\Project\mstic-dataexpl\notebooks\anomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD37EB8B-FDF1-4142-B49F-FFE8716DFDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFF0AD-9050-4CB0-BED6-55EB6C8369F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All-data-raw" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="169">
   <si>
     <t>UserId</t>
   </si>
@@ -46,12 +46,15 @@
     <t>Anomalies</t>
   </si>
   <si>
-    <t>Anomaly Score</t>
+    <t>Normalized Anomaly Score</t>
   </si>
   <si>
     <t>Administrator@namprd06.prod.outlook.com</t>
   </si>
   <si>
+    <t>AzureDev@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>AzureDevSub@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>JBritt@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>JHoneycutt@seccxp.ninja</t>
+  </si>
+  <si>
     <t>JHoneycutt@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
@@ -100,9 +106,15 @@
     <t>Microsoft Teams Sync</t>
   </si>
   <si>
+    <t>Microsoft\ServiceAccount</t>
+  </si>
+  <si>
     <t>NAMP221\Administrator (Microsoft.Office.Datacenter.Torus.PowerShellWorker)</t>
   </si>
   <si>
+    <t>NAMPRD06\Administrator (Microsoft.Office.Datacenter.Torus.PowerShellWorker)</t>
+  </si>
+  <si>
     <t>NT AUTHORITY\SYSTEM (MSExchangeMailboxAssistants)</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>RBlack@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>Rickys@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>RonHD@seccxp.ninja</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t>app@sharepoint</t>
   </si>
   <si>
+    <t>banu@seccxp.ninja</t>
+  </si>
+  <si>
     <t>brandon@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
@@ -175,24 +193,42 @@
     <t>camurray@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>caroline@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>cjones@seccxp.ninja</t>
   </si>
   <si>
+    <t>corinaf@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>demo@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>erinboris@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>eroberts@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
     <t>flowuser@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>franmer@seccxp.ninja</t>
+  </si>
+  <si>
     <t>franmer@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>gershon@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>jbritt@contosohotels.com</t>
   </si>
   <si>
+    <t>jhoneycutt@seccxp.ninja</t>
+  </si>
+  <si>
     <t>john@seccxp.ninja</t>
   </si>
   <si>
@@ -205,6 +241,9 @@
     <t>kdickens@seccxp.ninja</t>
   </si>
   <si>
+    <t>kemckinn@seccxp.ninja</t>
+  </si>
+  <si>
     <t>kemckinn@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
@@ -241,6 +280,12 @@
     <t>seb@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
+    <t>sveerk@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>taash@seccxpninja.onmicrosoft.com</t>
+  </si>
+  <si>
     <t>thbanasi@seccxpninja.onmicrosoft.com</t>
   </si>
   <si>
@@ -277,19 +322,19 @@
     <t>{'SharePoint'}</t>
   </si>
   <si>
-    <t>{'Exchange', 'MicrosoftTeams'}</t>
+    <t>{'MicrosoftTeams', 'Exchange'}</t>
   </si>
   <si>
     <t>{'MicrosoftTeams'}</t>
   </si>
   <si>
-    <t>{'SharePoint', 'OneDrive'}</t>
-  </si>
-  <si>
-    <t>{'Exchange', 'SharePoint', 'OneDrive'}</t>
-  </si>
-  <si>
-    <t>{'Exchange', 'OneDrive'}</t>
+    <t>{'OneDrive', 'SharePoint'}</t>
+  </si>
+  <si>
+    <t>{'OneDrive', 'SharePoint', 'Exchange'}</t>
+  </si>
+  <si>
+    <t>{'OneDrive', 'Exchange'}</t>
   </si>
   <si>
     <t>{'Set-OrganizationalUnit'}</t>
@@ -298,7 +343,7 @@
     <t>{'MailItemsAccessed'}</t>
   </si>
   <si>
-    <t>{'Set-SafeAttachmentRule', 'Add-RoleGroupMember', 'Set-SafeAttachmentPolicy', 'Set-User'}</t>
+    <t>{'Set-User', 'Add-RoleGroupMember', 'Set-SafeAttachmentRule', 'Set-SafeAttachmentPolicy'}</t>
   </si>
   <si>
     <t>{'MipLabel'}</t>
@@ -307,22 +352,28 @@
     <t>{'DLPRuleUndo', 'DLPRuleMatch'}</t>
   </si>
   <si>
-    <t>{'AutoSensitivityLabelRuleUndo', 'DLPRuleUndo', 'DLPRuleMatch'}</t>
+    <t>{'DLPRuleUndo', 'DLPRuleMatch', 'AutoSensitivityLabelRuleUndo'}</t>
+  </si>
+  <si>
+    <t>{'ModifyFolderPermissions'}</t>
   </si>
   <si>
     <t>{'Create'}</t>
   </si>
   <si>
-    <t>{'Create', 'MailItemsAccessed'}</t>
-  </si>
-  <si>
-    <t>{'MailItemsAccessed', 'Create', 'HardDelete', 'Update', 'SoftDelete', 'MipLabel', 'Send', 'MessageCreatedHasLink', 'ModifyFolderPermissions'}</t>
-  </si>
-  <si>
-    <t>{'Create', 'MailItemsAccessed', 'Send'}</t>
-  </si>
-  <si>
-    <t>{'MemberRoleChanged', 'MemberAdded'}</t>
+    <t>{'MailItemsAccessed', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'MessageCreatedHasLink', 'SoftDelete', 'HardDelete', 'Create', 'Send', 'MoveToDeletedItems', 'MipLabel', 'Update', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'Send', 'MailItemsAccessed', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'MemberAdded', 'MemberRoleChanged'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionQuotaModified'}</t>
   </si>
   <si>
     <t>{'Set-ConditionalAccessPolicy'}</t>
@@ -331,22 +382,28 @@
     <t>{'Remove-UnifiedGroup'}</t>
   </si>
   <si>
-    <t>{'Set-User'}</t>
-  </si>
-  <si>
-    <t>{'Install-DataClassificationConfig', 'Set-AdminAuditLogConfig', 'New-ExchangeAssistanceConfig', 'Install-ResourceConfig', 'Set-MailboxPlan', 'Set-Mailbox', 'Set-RecipientEnforcementProvisioningPolicy', 'Install-DefaultSharingPolicy', 'Set-ExchangeAssistanceConfig', 'Add-MailboxPermission', 'Set-TenantObjectVersion', 'Set-OwaMailboxPolicy', 'Enable-AddressListPaging', 'Set-TransportConfig', 'Install-AdminAuditLogConfig'}</t>
-  </si>
-  <si>
-    <t>{'Set-ConditionalAccessPolicy', 'New-Mailbox', 'Set-AcceptedDomain', 'New-ConditionalAccessPolicy'}</t>
+    <t>{'Set-User', 'Remove-MailboxLocation'}</t>
+  </si>
+  <si>
+    <t>{'Install-AdminAuditLogConfig', 'Set-TenantObjectVersion', 'Set-Mailbox', 'Install-DefaultSharingPolicy', 'Add-MailboxPermission', 'Set-OwaMailboxPolicy', 'Set-RecipientEnforcementProvisioningPolicy', 'Install-DataClassificationConfig', 'Set-AdminAuditLogConfig', 'Set-ExchangeAssistanceConfig', 'Enable-AddressListPaging', 'Set-MailboxPlan', 'Install-ResourceConfig', 'New-ExchangeAssistanceConfig', 'Set-TransportConfig'}</t>
+  </si>
+  <si>
+    <t>{'Install-AdminAuditLogConfig', 'Set-TenantObjectVersion', 'Set-Mailbox', 'Install-DefaultSharingPolicy', 'Add-MailboxPermission', 'Set-OwaMailboxPolicy', 'Set-RecipientEnforcementProvisioningPolicy', 'Install-DataClassificationConfig', 'Set-ExchangeAssistanceConfig', 'Set-AdminAuditLogConfig', 'Enable-AddressListPaging', 'Set-MailboxPlan', 'Install-ResourceConfig', 'New-ExchangeAssistanceConfig', 'Set-TransportConfig'}</t>
+  </si>
+  <si>
+    <t>{'New-App', 'Set-ConditionalAccessPolicy', 'Remove-Mailbox', 'Set-AcceptedDomain', 'New-Mailbox', 'New-ConditionalAccessPolicy'}</t>
   </si>
   <si>
     <t>{'DLPRuleUndo'}</t>
   </si>
   <si>
-    <t>{'AddFolderPermissions', 'ModifyFolderPermissions', 'Create'}</t>
-  </si>
-  <si>
-    <t>{'SiteLocksChanged'}</t>
+    <t>{'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'ModifyFolderPermissions', 'AddFolderPermissions', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'FileVersionsAllDeleted', 'SiteLocksChanged'}</t>
   </si>
   <si>
     <t>{'Set-Mailbox'}</t>
@@ -355,55 +412,79 @@
     <t>{'New-Mailbox', 'Set-Mailbox'}</t>
   </si>
   <si>
-    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SiteCollectionAdminAdded', 'SiteCollectionQuotaModified', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'Create', 'MailItemsAccessed', 'SoftDelete', 'Send', 'ModifyFolderPermissions'}</t>
+    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'SiteCollectionQuotaModified'}</t>
+  </si>
+  <si>
+    <t>{'SoftDelete', 'Create', 'Send', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
   </si>
   <si>
     <t>{'AnonymousLinkUsed'}</t>
   </si>
   <si>
-    <t>{'FileAccessed', 'SiteCollectionCreated', 'SharingInheritanceBroken', 'FileAccessedExtended', 'ListColumnCreated', 'AddedToGroup', 'ListUpdated', 'SiteCollectionQuotaModified', 'SharingRevoked'}</t>
-  </si>
-  <si>
-    <t>{'SiteCollectionCreated', 'FileAccessed', 'AnonymousLinkCreated', 'FolderModified', 'MipLabel', 'Add-MailboxPermission', 'Create', 'Send', 'PageViewed', 'SharingSet', 'New-Mailbox', 'GroupAdded', 'SharingInheritanceBroken', 'SoftDelete', 'FileUploaded', 'SiteCollectionAdminAdded', 'PermissionLevelAdded', 'AnonymousLinkUpdated', 'SiteCollectionQuotaModified', 'New-TransportRule', 'MailItemsAccessed', 'FolderCreated', 'SiteCollectionAdminRemoved', 'AddedToGroup', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'FolderCreated', 'MoveToDeletedItems', 'Create', 'Update', 'FileAccessed', 'SharingInheritanceBroken', 'SoftDelete', 'FileUploaded', 'PageViewed', 'FolderModified', 'Send', 'FilePreviewed', 'MipLabel', 'MailItemsAccessed'}</t>
+    <t>{'SiteCollectionCreated', 'AddedToGroup', 'ListColumnCreated', 'FileAccessed', 'SharingInheritanceBroken', 'SiteCollectionQuotaModified', 'SharingRevoked', 'ListUpdated', 'FileAccessedExtended'}</t>
+  </si>
+  <si>
+    <t>{'MailboxLogin', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'SoftDelete', 'Set-TransportRule', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'Add-MailboxPermission', 'AnonymousLinkCreated', 'FileAccessed', 'FileUploaded', 'AnonymousLinkUpdated', 'New-TransportRule', 'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'FolderModified', 'Create', 'SharingInheritanceBroken', 'GroupAdded', 'New-Mailbox', 'MailItemsAccessed', 'AddedToGroup', 'PermissionLevelAdded', 'SharingSet', 'SiteCollectionQuotaModified', 'Send', 'MipLabel', 'PageViewed', 'FolderCreated'}</t>
+  </si>
+  <si>
+    <t>{'FileAccessed', 'ListItemUpdated', 'FileDownloaded', 'SharingSet', 'SharingInheritanceBroken', 'GroupAdded', 'PageViewed', 'CompanyLinkCreated', 'ListViewed', 'FilePreviewed', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'SoftDelete', 'FolderModified', 'Create', 'SharingInheritanceBroken', 'FileUploaded', 'FileAccessed', 'MoveToDeletedItems', 'FolderCreated', 'PageViewed', 'Send', 'Update', 'MipLabel', 'FilePreviewed', 'MailItemsAccessed'}</t>
   </si>
   <si>
     <t>{'MemberRemoved'}</t>
   </si>
   <si>
-    <t>{'SiteCollectionCreated', 'FileAccessed', 'CompanyLinkCreated', 'FolderModified', 'FilePreviewed', 'FileRenamed', 'FileModified', 'ListViewed', 'PageViewed', 'SharingSet', 'GroupAdded', 'SharingInheritanceBroken', 'FileUploaded', 'SiteCollectionAdminAdded', 'FileAccessedExtended', 'FileDownloaded', 'SiteCollectionQuotaModified', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'MoveToDeletedItems', 'ModifyFolderPermissions', 'Create', 'SiteCollectionCreated', 'FileAccessed', 'Update', 'SiteCollectionAdminRemoved', 'SiteCollectionAdminAdded', 'Send', 'PageViewed', 'FolderModified', 'FileUploaded', 'FileAccessedExtended', 'ListViewed', 'FileDownloaded', 'SiteCollectionQuotaModified', 'MailItemsAccessed', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'GroupAdded', 'FileSensitivityLabelChanged', 'FileAccessed', 'SecureLinkCreated', 'PagePrefetched', 'SharingInheritanceBroken', 'AnonymousLinkCreated', 'FileUploaded', 'PageViewed', 'FilePreviewed', 'FileModified', 'AddedToGroup', 'FileDownloaded', 'SharingSet', 'FileModifiedExtended', 'AddedToSecureLink', 'FileSensitivityLabelApplied'}</t>
-  </si>
-  <si>
-    <t>{'MoveToDeletedItems', 'ModifyFolderPermissions', 'Create', 'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SiteCollectionAdminAdded', 'Send', 'SiteCollectionQuotaModified', 'MailItemsAccessed', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'Set-SafeLinksRule', 'Set-TransportRule', 'Set-HostedOutboundSpamFilterPolicy', 'Set-SafeLinksPolicy', 'Set-HostedOutboundSpamFilterRule', 'New-TransportRule', 'Set-TransportConfig'}</t>
-  </si>
-  <si>
-    <t>{'MoveToDeletedItems', 'Create', 'ModifyFolderPermissions', 'SiteCollectionCreated', 'SoftDelete', 'SiteCollectionAdminRemoved', 'SiteCollectionAdminAdded', 'Send', 'MipLabel', 'SiteCollectionQuotaModified', 'MailItemsAccessed', 'SharingPolicyChanged'}</t>
-  </si>
-  <si>
-    <t>{'Create', 'MailItemsAccessed', 'Send', 'MipLabel'}</t>
-  </si>
-  <si>
-    <t>{'GroupAdded', 'FileAccessed', 'SharingInheritanceBroken', 'AnonymousLinkCreated', 'ClientViewSignaled', 'PageViewed', 'FilePreviewed', 'AnonymousLinkUpdated', 'AddedToGroup', 'SharingSet', 'FileDownloaded', 'ListViewed'}</t>
-  </si>
-  <si>
-    <t>{'FileDownloaded', 'FilePreviewed', 'PageViewed'}</t>
-  </si>
-  <si>
-    <t>{'FileDownloaded', 'FileAccessed', 'PageViewed'}</t>
+    <t>{'SoftDelete', 'Create', 'MoveToDeletedItems', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'FileAccessed', 'ListViewed'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'Create', 'SiteCollectionQuotaModified', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'FileDownloaded', 'FileAccessed', 'FileUploaded', 'FileAccessedExtended', 'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'FileModified', 'FolderModified', 'SharingInheritanceBroken', 'FileRenamed', 'GroupAdded', 'CompanyLinkCreated', 'ListViewed', 'FilePreviewed', 'SharingSet', 'SiteCollectionQuotaModified', 'PageViewed'}</t>
+  </si>
+  <si>
+    <t>{'ModifyFolderPermissions', 'MailItemsAccessed', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'FolderModified', 'FileAccessedExtended', 'ListViewed', 'FileUploaded', 'FileAccessed', 'SiteCollectionQuotaModified', 'Send', 'FileDownloaded', 'MoveToDeletedItems', 'PageViewed', 'Create', 'Update', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'FileSensitivityLabelChanged', 'PagePrefetched', 'FileSensitivityLabelApplied', 'AddedToSecureLink', 'AddedToGroup', 'FileModified', 'SecureLinkCreated', 'FileDownloaded', 'FileAccessed', 'FileUploaded', 'SharingInheritanceBroken', 'AnonymousLinkCreated', 'GroupAdded', 'PageViewed', 'SharingSet', 'FileModifiedExtended', 'FilePreviewed'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionCreated', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'Create', 'SiteCollectionQuotaModified', 'Send', 'MoveToDeletedItems', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'Set-Mailbox', 'MailItemsAccessed', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'Set-TransportRule', 'Set-HostedOutboundSpamFilterRule', 'Set-SafeLinksPolicy', 'Set-SafeLinksRule', 'Set-HostedOutboundSpamFilterPolicy', 'New-TransportRule', 'Set-TransportConfig'}</t>
+  </si>
+  <si>
+    <t>{'SiteCollectionCreated', 'SoftDelete', 'SiteCollectionAdminRemoved', 'SharingPolicyChanged', 'SiteCollectionAdminAdded', 'Create', 'SiteCollectionQuotaModified', 'Send', 'MoveToDeletedItems', 'MipLabel', 'ModifyFolderPermissions', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'MemberRemoved', 'TeamsSessionStarted', 'Create', 'Send', 'MipLabel', 'MailItemsAccessed'}</t>
+  </si>
+  <si>
+    <t>{'Send', 'MipLabel', 'MailItemsAccessed', 'Create'}</t>
+  </si>
+  <si>
+    <t>{'AddedToGroup', 'FileAccessed', 'FileDownloaded', 'SharingInheritanceBroken', 'SharingSet', 'AnonymousLinkCreated', 'GroupAdded', 'PageViewed', 'AnonymousLinkUpdated', 'ListViewed', 'ClientViewSignaled', 'FilePreviewed'}</t>
+  </si>
+  <si>
+    <t>{'PageViewed', 'FilePreviewed', 'FileDownloaded'}</t>
+  </si>
+  <si>
+    <t>{'FileDownloaded', 'PageViewed', 'FileAccessed'}</t>
   </si>
   <si>
     <t>{'FileDownloaded', 'FilePreviewed', 'FileAccessed'}</t>
@@ -418,6 +499,9 @@
     <t>{'', 'Succeeded', 'True'}</t>
   </si>
   <si>
+    <t>{'Succeeded', 'True'}</t>
+  </si>
+  <si>
     <t>{'DcAdmin'}</t>
   </si>
   <si>
@@ -436,10 +520,13 @@
     <t>{'Application'}</t>
   </si>
   <si>
-    <t>{'DcAdmin', 'Admin'}</t>
-  </si>
-  <si>
-    <t>{'System', 'Admin', 'Regular'}</t>
+    <t>{'Admin', 'DcAdmin'}</t>
+  </si>
+  <si>
+    <t>{'System', 'Regular', 'Admin'}</t>
+  </si>
+  <si>
+    <t>{'Regular', 'Admin'}</t>
   </si>
   <si>
     <t>No. of Login Times</t>
@@ -501,18 +588,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,2013 +931,2456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="45.6328125" style="2"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" t="s">
+        <v>167</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" t="s">
+        <v>160</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" t="s">
+        <v>160</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
+        <v>160</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C84" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D84" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="145" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="145" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="174" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="145" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I63" s="2">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I65" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0.1</v>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" t="s">
+        <v>160</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -2868,24 +3391,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2916,205 +3438,263 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-0.02</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-0.09</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-0.02</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-0.04</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-0.02</v>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>61</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-0.04</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>63</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>-0.03</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -3125,24 +3705,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3150,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3200,10 +3780,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3214,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3232,10 +3812,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -3246,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3264,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -3278,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3287,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3296,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -3310,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3319,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3328,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -3342,7 +3922,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3351,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3360,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3374,7 +3954,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3383,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3392,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -3406,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3415,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3424,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -3438,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3456,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -3470,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3488,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -3502,7 +4082,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3520,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3534,7 +4114,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3543,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3552,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -3566,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3575,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3584,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -3598,28 +4178,28 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-0.02</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -3630,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3648,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -3662,28 +4242,28 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>1196</v>
+        <v>357</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -3694,7 +4274,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3712,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -3726,7 +4306,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>461</v>
+        <v>2158</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3735,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3744,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3758,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3767,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3776,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -3790,7 +4370,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>774</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3808,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -3822,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>766</v>
+        <v>720</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3831,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3840,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -3854,7 +4434,7 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3863,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3872,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -3886,28 +4466,28 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -3918,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>2607</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3927,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3936,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -3950,7 +4530,7 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>1150</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3959,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3968,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -3982,7 +4562,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>1048</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3991,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4000,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -4014,28 +4594,28 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -4046,13 +4626,13 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4064,10 +4644,10 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -4078,7 +4658,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4087,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4096,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -4110,7 +4690,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4119,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4128,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -4142,7 +4722,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4151,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -4160,10 +4740,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -4174,7 +4754,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4183,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -4192,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -4206,16 +4786,16 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4224,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -4238,7 +4818,7 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4247,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4256,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -4270,7 +4850,7 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4279,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4288,10 +4868,10 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -4302,7 +4882,7 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4311,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4320,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -4352,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -4366,13 +4946,13 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4384,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -4398,16 +4978,16 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4416,10 +4996,10 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -4430,7 +5010,7 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4439,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4448,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -4462,7 +5042,7 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4471,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4480,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -4494,28 +5074,28 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>-0.09</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -4526,28 +5106,28 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>-0.02</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -4558,16 +5138,16 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4576,10 +5156,10 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.09</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -4590,7 +5170,7 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4599,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4608,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -4622,7 +5202,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4640,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -4654,7 +5234,7 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4672,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -4686,28 +5266,28 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -4718,19 +5298,19 @@
         <v>56</v>
       </c>
       <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
       <c r="F50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4739,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -4750,28 +5330,28 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0.1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -4782,7 +5362,7 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4791,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4800,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -4814,16 +5394,16 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -4832,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -4846,7 +5426,7 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4855,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -4864,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -4896,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -4910,7 +5490,7 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4919,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4928,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -4942,28 +5522,28 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>906</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>-0.04</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -4974,16 +5554,16 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -4992,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -5006,28 +5586,28 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>-0.02</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -5038,7 +5618,7 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5047,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5056,10 +5636,10 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -5070,16 +5650,16 @@
         <v>67</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5088,10 +5668,10 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -5102,7 +5682,7 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -5111,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5120,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -5134,28 +5714,28 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>1363</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>-0.04</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -5166,28 +5746,28 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -5198,28 +5778,28 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <v>1121</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>-0.03</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -5230,7 +5810,7 @@
         <v>72</v>
       </c>
       <c r="C66">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5239,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -5248,10 +5828,10 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -5262,7 +5842,7 @@
         <v>73</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -5271,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -5280,10 +5860,10 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -5294,7 +5874,7 @@
         <v>74</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5312,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -5326,7 +5906,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5344,10 +5924,490 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0.1</v>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>906</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>45</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>102</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>194</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>1416</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>978</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78">
+        <v>1644</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>129</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -5358,24 +6418,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -5383,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5409,13 +6469,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -5424,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5433,53 +6493,53 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>-0.02</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>-0.09</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5488,30 +6548,30 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>-0.02</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>906</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5520,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5529,106 +6589,170 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.04</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
       <c r="C6">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>-0.02</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>1363</v>
+        <v>906</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>-0.04</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>1121</v>
+        <v>1416</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>978</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>1644</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-0.03</v>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
